--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/D/10/seed4/result_data_RandomForest.xlsx
@@ -590,7 +590,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.446599999999995</v>
+        <v>-7.367799999999996</v>
       </c>
       <c r="E9" t="n">
         <v>17.64</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.857599999999993</v>
+        <v>-8.705899999999998</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.519499999999995</v>
+        <v>-7.639799999999996</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.050799999999995</v>
+        <v>-9.076899999999998</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.115099999999996</v>
+        <v>-7.251899999999998</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.566099999999997</v>
+        <v>-7.394999999999999</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1831,7 +1831,7 @@
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.31969999999999</v>
+        <v>-8.382199999999994</v>
       </c>
       <c r="E82" t="n">
         <v>16.71</v>
